--- a/ACG/ACG/Stage02.xlsx
+++ b/ACG/ACG/Stage02.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takiyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +69,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +126,91 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -479,31 +563,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AW8" sqref="AV8:AW8"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CR7" sqref="CR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="39" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="43" max="50" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="95" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="100" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="39" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="50" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="100" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -805,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1107,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1409,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1711,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -2013,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2300,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="CR6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CS6" s="1">
         <v>0</v>
@@ -2315,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2617,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2904,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -2919,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3221,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3526,44 +3610,49 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 A1:AK10 BL7:BN8 AQ3:CV7 AQ8:AY9">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2 CU1:CV4">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>11</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3572,6 +3661,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -3703,29 +3807,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27FD03-2376-4F0A-88CC-BF9285CDE21E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27FD03-2376-4F0A-88CC-BF9285CDE21E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/Stage02.xlsx
+++ b/ACG/ACG/Stage02.xlsx
@@ -126,7 +126,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -264,6 +278,69 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -566,14 +643,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CR7" sqref="CR7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -1534,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -1836,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -2138,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2440,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2742,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -3044,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3609,50 +3688,53 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 A1:AK10 BL7:BN8 AQ3:CV7 AQ8:AY9">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ3:CV7 AQ8:AY9 A1:AK10">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2 CU1:CV4">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3661,21 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -3807,24 +3874,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27FD03-2376-4F0A-88CC-BF9285CDE21E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3840,4 +3905,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/Stage02.xlsx
+++ b/ACG/ACG/Stage02.xlsx
@@ -126,7 +126,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -137,6 +144,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -207,6 +270,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -228,6 +340,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -278,69 +404,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -643,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CL9" sqref="CL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -661,7 +724,13 @@
     <col min="41" max="41" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="50" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="76" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="91" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="92" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="97" max="100" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2119,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="CD5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CE5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CF5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CG5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CH5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CI5" s="1">
         <v>0</v>
@@ -2708,16 +2777,16 @@
         <v>2</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CA7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CB7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CC7" s="1">
         <v>0</v>
@@ -2741,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CK7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CM7" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CN7" s="1">
         <v>2</v>
@@ -3688,52 +3757,52 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ3:CV7 AQ8:AY9 A1:AK10">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ8:AY9 A1:AK10 AQ3:CV7">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2 CU1:CV4">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3743,6 +3812,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -3874,22 +3958,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27FD03-2376-4F0A-88CC-BF9285CDE21E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3905,21 +3991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/Stage02.xlsx
+++ b/ACG/ACG/Stage02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Source\Repos\teamcreate\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,14 +126,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -144,210 +137,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,36 +496,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CL9" sqref="CL9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="39" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="50" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="76" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="86" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="100" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="39" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="50" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="76" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="91" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="92" max="95" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="100" width="2.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1037,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1162,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ2" s="1">
         <v>1</v>
@@ -1339,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1641,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1943,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -2245,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2547,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2849,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -3151,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3453,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3758,52 +3548,52 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ8:AY9 A1:AK10 AQ3:CV7">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2 CU1:CV4">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD10">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>19</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
-      <formula>19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3962,7 +3752,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ACG/ACG/Stage02.xlsx
+++ b/ACG/ACG/Stage02.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -194,6 +215,153 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -497,35 +665,35 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="39" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="43" max="50" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="76" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="86" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="92" max="95" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="100" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="39" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="50" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="76" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="91" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="92" max="95" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="100" width="2.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -827,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1129,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1431,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1472,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -1733,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1774,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -2035,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2076,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2337,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2378,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2639,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2680,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2941,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2982,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -3243,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3547,53 +3715,56 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ8:AY9 A1:AK10 AQ3:CV7">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+  <conditionalFormatting sqref="AP4:AR4 CU1:CV4 AY2:CV3 AZ8:CV10 AQ1:AR3 AL1:CV2 AL3:AP10 AP9:AY10 BL7:BN8 AQ8:AY9 AQ3:CV7 A1:AK10">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2 CU1:CV4">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,21 +3773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -3748,31 +3904,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C27FD03-2376-4F0A-88CC-BF9285CDE21E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3788,4 +3935,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AF60B1-F1BF-4BCE-9480-8A4D34B46869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F39318A-E26C-41FE-B866-FB48F3F0906B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>